--- a/Income/CB_inc.xlsx
+++ b/Income/CB_inc.xlsx
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>6835000000.0</v>
+        <v>6839000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>4678000000.0</v>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-502000000.0</v>
+        <v>-506000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>-516000000.0</v>
@@ -1780,16 +1780,16 @@
         <v>0.1929</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.1705</v>
+        <v>0.1706</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.1856</v>
+        <v>0.1857</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.2329</v>
+        <v>0.2331</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.2503</v>
+        <v>0.2505</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.2368</v>
@@ -1907,16 +1907,16 @@
         <v>0.1298</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.0942</v>
+        <v>0.0943</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.0953</v>
+        <v>0.0954</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.1487</v>
+        <v>0.1488</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.1702</v>
+        <v>0.1704</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.1518</v>
@@ -2034,16 +2034,16 @@
         <v>0.1154</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.0788</v>
+        <v>0.0789</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.0794</v>
+        <v>0.0795</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.1321</v>
+        <v>0.1322</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.1534</v>
+        <v>0.1535</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.1337</v>
@@ -2161,16 +2161,16 @@
         <v>0.098</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.0655</v>
+        <v>0.0656</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0.0634</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.1079</v>
+        <v>0.108</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.1302</v>
+        <v>0.1303</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.1099</v>
@@ -2288,16 +2288,16 @@
         <v>0.2966</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.2771</v>
+        <v>0.2653</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.2376</v>
+        <v>0.2257</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.2166</v>
+        <v>0.2045</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.1976</v>
+        <v>0.1855</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.1964</v>
@@ -2408,10 +2408,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>7484000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>5335000000.0</v>
@@ -2538,7 +2536,7 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>6835000000.0</v>
+        <v>6839000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>4678000000.0</v>
@@ -2665,7 +2663,7 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>12.3109</v>
+        <v>12.3105</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>7.7914</v>
@@ -2791,10 +2789,8 @@
           <t>EPS (Basic, Consolidated)</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>12.3705</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>7.8232</v>
@@ -2920,10 +2916,8 @@
           <t>EPS (Basic, from Continuous Ops)</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>12.3705</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>7.8232</v>
@@ -3310,16 +3304,16 @@
         <v>0.148</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.1135</v>
+        <v>0.1136</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0.1149</v>
+        <v>0.115</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.1683</v>
+        <v>0.1684</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.1907</v>
+        <v>0.1908</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0.1744</v>
@@ -3437,16 +3431,16 @@
         <v>0.2966</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.2771</v>
+        <v>0.2653</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.2376</v>
+        <v>0.2257</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.2166</v>
+        <v>0.2045</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.1976</v>
+        <v>0.1855</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.1964</v>
